--- a/excel_weather.xlsx
+++ b/excel_weather.xlsx
@@ -7,89 +7,167 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CurrentCondition" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
-  <si>
-    <t>dayhour</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>humidity</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>iconURL</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>mile</t>
-  </si>
-  <si>
-    <t>Sunday 11:00 AM</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>https://ssl.gstatic.com/onebox/weather/64/cloudy.png</t>
-  </si>
-  <si>
-    <t>Cloudy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+  <si>
+    <t>"cod"</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>"0"</t>
+  </si>
+  <si>
+    <t>"city"</t>
+  </si>
+  <si>
+    <t>"id"</t>
+  </si>
+  <si>
+    <t>"name"</t>
+  </si>
+  <si>
+    <t>"coord"</t>
+  </si>
+  <si>
+    <t>"country"</t>
+  </si>
+  <si>
+    <t>"message"</t>
+  </si>
+  <si>
+    <t>"."</t>
+  </si>
+  <si>
+    <t>"3"</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"9"</t>
+  </si>
+  <si>
+    <t>"4"</t>
+  </si>
+  <si>
+    <t>"6"</t>
+  </si>
+  <si>
+    <t>"list"</t>
+  </si>
+  <si>
+    <t>{"dt": 1653264000, "humidity": "64.97", "pressure": "1014.04", "temp": {"average": "290.28", "average_max": "295.31", "average_min": "284.14", "record_max": "301.15", "record_min": "280.25"}, "wind_speed": "3.5"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1653350400, "humidity": "68.75", "pressure": "1014.52", "temp": {"average": "289.66", "average_max": "294.19", "average_min": "284.71", "record_max": "301.15", "record_min": "281.48"}, "wind_speed": "3.57"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1653436800, "humidity": "73.05", "pressure": "1013.94", "temp": {"average": "289.13", "average_max": "293.25", "average_min": "285.11", "record_max": "297.77", "record_min": "282.04"}, "wind_speed": "2.86"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1653523200, "humidity": "77.01", "pressure": "1015.05", "temp": {"average": "288.69", "average_max": "293.73", "average_min": "283.59", "record_max": "298.34", "record_min": "278.15"}, "wind_speed": "3.3"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1653609600, "humidity": "68.58", "pressure": "1015.45", "temp": {"average": "290.23", "average_max": "296.2", "average_min": "284.07", "record_max": "300.15", "record_min": "277.59"}, "wind_speed": "3.37"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1653696000, "humidity": "73.1", "pressure": "1014.59", "temp": {"average": "289.71", "average_max": "294.62", "average_min": "284.11", "record_max": "300.91", "record_min": "279.82"}, "wind_speed": "2.97"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1653782400, "humidity": "67.35", "pressure": "1014.02", "temp": {"average": "289.02", "average_max": "292.91", "average_min": "283.87", "record_max": "302.18", "record_min": "280.09"}, "wind_speed": "3.93"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1653868800, "humidity": "65.4", "pressure": "1014.58", "temp": {"average": "290.06", "average_max": "295.48", "average_min": "284.53", "record_max": "303.57", "record_min": "278.5"}, "wind_speed": "4.11"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1653955200, "humidity": "62.39", "pressure": "1014.4", "temp": {"average": "291.25", "average_max": "296.02", "average_min": "284.47", "record_max": "304.15", "record_min": "281.15"}, "wind_speed": "3.73"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654041600, "humidity": "62.78", "pressure": "1014.74", "temp": {"average": "291.26", "average_max": "295.97", "average_min": "285.94", "record_max": "304.15", "record_min": "281.82"}, "wind_speed": "3.83"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654128000, "humidity": "66.92", "pressure": "1013.87", "temp": {"average": "291.4", "average_max": "295.83", "average_min": "285.88", "record_max": "301.79", "record_min": "280.15"}, "wind_speed": "3.62"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654214400, "humidity": "63.43", "pressure": "1014.79", "temp": {"average": "291.38", "average_max": "296.41", "average_min": "285.71", "record_max": "303.57", "record_min": "282.15"}, "wind_speed": "2.85"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654300800, "humidity": "63.98", "pressure": "1013.21", "temp": {"average": "292.24", "average_max": "297.94", "average_min": "285.35", "record_max": "302.3", "record_min": "281.92"}, "wind_speed": "2.89"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654387200, "humidity": "65.21", "pressure": "1013.4", "temp": {"average": "291.87", "average_max": "296.83", "average_min": "285.97", "record_max": "301.88", "record_min": "282.97"}, "wind_speed": "3.71"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654473600, "humidity": "62.44", "pressure": "1016.37", "temp": {"average": "291.28", "average_max": "295.79", "average_min": "285.49", "record_max": "301.57", "record_min": "281.15"}, "wind_speed": "3.9"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654560000, "humidity": "61.82", "pressure": "1017.79", "temp": {"average": "292.35", "average_max": "297.86", "average_min": "285.96", "record_max": "301.56", "record_min": "278.85"}, "wind_speed": "2.69"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654646400, "humidity": "61.37", "pressure": "1017.37", "temp": {"average": "292.97", "average_max": "298.54", "average_min": "285.75", "record_max": "302.15", "record_min": "280.52"}, "wind_speed": "2.85"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654732800, "humidity": "59.89", "pressure": "1017.31", "temp": {"average": "292.61", "average_max": "297.49", "average_min": "286.48", "record_max": "303.15", "record_min": "282.03"}, "wind_speed": "3.07"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654819200, "humidity": "60.64", "pressure": "1014.54", "temp": {"average": "293.48", "average_max": "299.34", "average_min": "287.18", "record_max": "305.15", "record_min": "279.51"}, "wind_speed": "3.35"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654905600, "humidity": "64.65", "pressure": "1013.53", "temp": {"average": "293.39", "average_max": "298.39", "average_min": "288.37", "record_max": "306.12", "record_min": "280.5"}, "wind_speed": "3.06"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1654992000, "humidity": "64.79", "pressure": "1011.9", "temp": {"average": "293.41", "average_max": "299.23", "average_min": "287.02", "record_max": "306.54", "record_min": "279.73"}, "wind_speed": "3.69"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655078400, "humidity": "64.3", "pressure": "1011.47", "temp": {"average": "292.48", "average_max": "297.22", "average_min": "286.91", "record_max": "306.77", "record_min": "281.72"}, "wind_speed": "4.35"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655164800, "humidity": 64, "pressure": "1012.62", "temp": {"average": "292.07", "average_max": "296.57", "average_min": "287.02", "record_max": "301.77", "record_min": "283.55"}, "wind_speed": "4.16"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655251200, "humidity": "64.18", "pressure": "1013.34", "temp": {"average": "292.5", "average_max": "297.35", "average_min": "286.52", "record_max": "305.01", "record_min": "283.15"}, "wind_speed": "3.21"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655337600, "humidity": "61.02", "pressure": "1014.32", "temp": {"average": "292.67", "average_max": "297.58", "average_min": "286.31", "record_max": "301.15", "record_min": "280.15"}, "wind_speed": "3.03"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655424000, "humidity": "59.81", "pressure": "1014.48", "temp": {"average": "293.12", "average_max": "298.65", "average_min": "287.72", "record_max": "304.31", "record_min": 283}, "wind_speed": "3.9"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655510400, "humidity": "60.74", "pressure": "1015.95", "temp": {"average": "293.28", "average_max": "298.76", "average_min": "286.82", "record_max": "303.8", "record_min": "282.76"}, "wind_speed": "3.27"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655596800, "humidity": "63.33", "pressure": "1014.53", "temp": {"average": "294.51", "average_max": "299.96", "average_min": "287.72", "record_max": "304.33", "record_min": "283.15"}, "wind_speed": "3.25"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655683200, "humidity": "69.02", "pressure": "1013.65", "temp": {"average": "294.11", "average_max": "298.98", "average_min": "288.55", "record_max": "304.15", "record_min": "282.1"}, "wind_speed": "3.54"}</t>
+  </si>
+  <si>
+    <t>{"dt": 1655769600, "humidity": "69.31", "pressure": "1013.07", "temp": {"average": "293.65", "average_max": 299, "average_min": "288.64", "record_max": "305.15", "record_min": "284.15"}, "wind_speed": "3.78"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -108,38 +186,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,134 +486,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A2:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>